--- a/app/formatos/aprendiz_excel.xlsx
+++ b/app/formatos/aprendiz_excel.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\situ-web\app\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B3A4CD-9B8D-4426-9943-E80FFBEC9E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8817154-8A0E-4759-A6DA-2E9C0727B361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCD50C48-0D3D-4E47-8B4A-0EDF22A9E9A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="Parametros" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,76 +25,265 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Tipos de Estado</t>
-  </si>
-  <si>
-    <t>Activo</t>
-  </si>
-  <si>
-    <t>Inactivo</t>
-  </si>
-  <si>
-    <t>suspendido</t>
-  </si>
-  <si>
-    <t>Bloqueado</t>
-  </si>
-  <si>
-    <t>Etapa Productiva</t>
-  </si>
-  <si>
-    <t>Retirado</t>
-  </si>
-  <si>
-    <t>Numero de Documento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombres </t>
-  </si>
-  <si>
-    <t>Apellidos</t>
-  </si>
-  <si>
-    <t>Numero de Celular</t>
-  </si>
-  <si>
-    <t>Correo Electronico</t>
-  </si>
-  <si>
-    <t>Tipo de Cargo</t>
-  </si>
-  <si>
-    <t>Tipo de estado</t>
-  </si>
-  <si>
-    <t>Tipo de Documento</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="84">
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>EXT</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>HIJOS</t>
+  </si>
+  <si>
+    <t>NOMBRE EPS</t>
+  </si>
+  <si>
+    <t>RELACIONE ALGUNA ENFERMEDAD</t>
+  </si>
+  <si>
+    <t>Wendy Daniela</t>
+  </si>
+  <si>
+    <t>Peñaloza Cardona</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Medimas</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wdpenaloza0@misena.edu.co </t>
+  </si>
+  <si>
+    <t>Alexandra</t>
+  </si>
+  <si>
+    <t>Vaquiro cometa</t>
+  </si>
+  <si>
+    <t>Ecopsos</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>avaquiro8@misena.edu.co</t>
+  </si>
+  <si>
+    <t>Jessica Neidery</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>jnvaquiro@misena.edu.co</t>
+  </si>
+  <si>
+    <t>Angie Lorena</t>
+  </si>
+  <si>
+    <t>Morales Chávez</t>
+  </si>
+  <si>
+    <t>almorales38@misena.edu.co</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Reinoso Pira</t>
+  </si>
+  <si>
+    <t>kreinosob@misena.edu.co</t>
+  </si>
+  <si>
+    <t>Angie Vivíana</t>
+  </si>
+  <si>
+    <t>Ruiz Lasso</t>
+  </si>
+  <si>
+    <t>Nueva Eps</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>avruiz77@misena.edu.co</t>
+  </si>
+  <si>
+    <t>Sharick Tatiana</t>
+  </si>
+  <si>
+    <t>Cuenca Sogamoso</t>
+  </si>
+  <si>
+    <t>stcuenca1@misena.edu.co</t>
+  </si>
+  <si>
+    <t>Laura Sofía</t>
+  </si>
+  <si>
+    <t>Ariza Useche</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Isariza376@misena.edu.co</t>
+  </si>
+  <si>
+    <t>Yeison</t>
+  </si>
+  <si>
+    <t>Cruz Avila</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>ycruz5428@misena.edu.co</t>
+  </si>
+  <si>
+    <t>Jailer</t>
+  </si>
+  <si>
+    <t>Ortiz Merchán</t>
+  </si>
+  <si>
+    <t>pijao salud</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>jortiz223@misena.edu.co</t>
+  </si>
+  <si>
+    <t>Johan Oswaldo</t>
+  </si>
+  <si>
+    <t>Ortiz Roldan</t>
+  </si>
+  <si>
+    <t>joortiz82@misena.edu.co</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Ramírez lasso</t>
+  </si>
+  <si>
+    <t>Asmet Salud</t>
+  </si>
+  <si>
+    <t>jramirez891@misena.edu.co</t>
+  </si>
+  <si>
+    <t>Braulio</t>
+  </si>
+  <si>
+    <t>Legarda Padilla</t>
+  </si>
+  <si>
+    <t>blegarda5@misena.edu.co</t>
+  </si>
+  <si>
+    <t>Hector Manuel</t>
+  </si>
+  <si>
+    <t>Avilan Olarte</t>
+  </si>
+  <si>
+    <t>Asmet salud</t>
+  </si>
+  <si>
+    <t>hectoravilan7q@misena.edu.co</t>
+  </si>
+  <si>
+    <t>PATROCINIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMBRES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">APELLIDOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO DE DOCUMENTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMERO DE DOCUMENTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA DE NACIMIENTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERNO/ EXTERNO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID CIUDAD DE NACIMIENTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID CIUDAD DE RESIDENCIA </t>
+  </si>
+  <si>
+    <t>RUTA DE BUSES</t>
+  </si>
+  <si>
+    <t>NOMBRE EMPRESA PATROCINADORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTRATO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMERO DE CELULAR </t>
+  </si>
+  <si>
+    <t>CELULAR ACUDIENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORREO PERSONAL </t>
+  </si>
+  <si>
+    <t>CORREO INSTITUCIONAL</t>
+  </si>
+  <si>
+    <t>T.I.</t>
   </si>
   <si>
     <t>C.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Albeiro </t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t>prueba@gmail.com</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>FICHA DE FORMACION</t>
+  </si>
+  <si>
+    <t>ESTADO APRENDIZ</t>
+  </si>
+  <si>
+    <t>ESTADO SENA EMPRESA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +298,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -129,7 +323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,27 +354,42 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -201,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -217,7 +426,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -229,7 +438,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -246,7 +455,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -276,12 +485,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -311,6 +537,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,181 +705,1107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EBC834-81D0-4D4B-A056-3918243CFBE4}">
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="78" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="28.42578125" style="4" customWidth="1"/>
-    <col min="3" max="9" width="29.85546875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="29.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="11" customWidth="1"/>
+    <col min="4" max="5" width="29.140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="23" style="11" customWidth="1"/>
+    <col min="7" max="7" width="28" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="11"/>
+    <col min="9" max="9" width="22.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="11"/>
+    <col min="15" max="15" width="18.7109375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="11" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" style="11" customWidth="1"/>
+    <col min="19" max="19" width="20.85546875" style="11" customWidth="1"/>
+    <col min="20" max="20" width="27.5703125" style="11" customWidth="1"/>
+    <col min="21" max="21" width="27.42578125" style="11" customWidth="1"/>
+    <col min="22" max="22" width="20.85546875" style="11" customWidth="1"/>
+    <col min="23" max="23" width="21" style="11" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1104695640</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2201230</v>
+      </c>
+      <c r="F2" s="3">
+        <v>38299</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1040</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1030</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="2">
+        <v>3192108407</v>
+      </c>
+      <c r="S2" s="2">
+        <v>3192108407</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1106769898</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2201230</v>
+      </c>
+      <c r="F3" s="3">
+        <v>38300</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1025</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1030</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="2">
+        <v>3145753692</v>
+      </c>
+      <c r="S3" s="2">
+        <v>3145753692</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1106769627</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2201230</v>
+      </c>
+      <c r="F4" s="3">
+        <v>38301</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1025</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1030</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3214677782</v>
+      </c>
+      <c r="S4" s="2">
+        <v>3214677782</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1111042683</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2201230</v>
+      </c>
+      <c r="F5" s="3">
+        <v>38302</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1025</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1030</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="2">
+        <v>3104946434</v>
+      </c>
+      <c r="S5" s="2">
+        <v>3104946434</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1111042536</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2201230</v>
+      </c>
+      <c r="F6" s="3">
+        <v>38303</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1025</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1030</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="2">
+        <v>3102468098</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3102468098</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1108828877</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2201230</v>
+      </c>
+      <c r="F7" s="3">
+        <v>38304</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1025</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1030</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="2">
+        <v>3227917418</v>
+      </c>
+      <c r="S7" s="2">
+        <v>3227917418</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1111042591</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2201230</v>
+      </c>
+      <c r="F8" s="3">
+        <v>38305</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1025</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="4">
+        <v>1030</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="2">
+        <v>3108864353</v>
+      </c>
+      <c r="S8" s="2">
+        <v>3108864353</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1111042673</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2201230</v>
+      </c>
+      <c r="F9" s="3">
+        <v>38306</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1025</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1030</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
+      <c r="P9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="2">
+        <v>3208883671</v>
+      </c>
+      <c r="S9" s="2">
+        <v>3208883671</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4">
-        <v>100523010</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1108828245</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2201230</v>
+      </c>
+      <c r="F10" s="3">
+        <v>38307</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1025</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1030</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="2">
+        <v>3016122859</v>
+      </c>
+      <c r="S10" s="2">
+        <v>3016122859</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="W10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1109490322</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2201230</v>
+      </c>
+      <c r="F11" s="3">
+        <v>38308</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1025</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1030</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" s="2">
+        <v>3005574615</v>
+      </c>
+      <c r="S11" s="2">
+        <v>3005574615</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1108828628</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2201230</v>
+      </c>
+      <c r="F12" s="3">
+        <v>38309</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1025</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1030</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4">
-        <v>3202401201</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>20</v>
+      <c r="R12" s="2">
+        <v>3183717502</v>
+      </c>
+      <c r="S12" s="2">
+        <v>3183717502</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1023368198</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2201230</v>
+      </c>
+      <c r="F13" s="3">
+        <v>38310</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1025</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1030</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="2">
+        <v>3138028530</v>
+      </c>
+      <c r="S13" s="2">
+        <v>3138028530</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1105304265</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2201230</v>
+      </c>
+      <c r="F14" s="3">
+        <v>38311</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1025</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1030</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" s="2">
+        <v>3107211063</v>
+      </c>
+      <c r="S14" s="2">
+        <v>3107211063</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="W14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1000858715</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2201230</v>
+      </c>
+      <c r="F15" s="3">
+        <v>38312</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1025</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1030</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="2">
+        <v>3212658589</v>
+      </c>
+      <c r="S15" s="2">
+        <v>3212658589</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1</v>
+      </c>
+      <c r="W15" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{7DD536D1-1731-4D34-95AC-2D6E884D2653}"/>
+    <hyperlink ref="T2" r:id="rId1" display="mailto:wdpenaloza0@misena.edu.co" xr:uid="{3A973E0E-1E0F-428F-A0C4-C792855D70F8}"/>
+    <hyperlink ref="T3" r:id="rId2" display="mailto:avaquiro8@misena.edu.co" xr:uid="{51F5B191-EEF8-4390-98F1-EB9F995E0A8C}"/>
+    <hyperlink ref="T4" r:id="rId3" display="mailto:jnvaquiro@misena.edu.co" xr:uid="{3CF6A944-3C7F-4C59-9088-39B604FDFBB8}"/>
+    <hyperlink ref="T5" r:id="rId4" display="mailto:almorales38@misena.edu.co" xr:uid="{9540EAED-FC97-42C2-8D35-ECD59A7F140A}"/>
+    <hyperlink ref="T6" r:id="rId5" display="mailto:kreinosob@misena.edu.co" xr:uid="{9EEFAC65-16EC-4D80-9217-4073755BEB1A}"/>
+    <hyperlink ref="T7" r:id="rId6" display="mailto:avruiz77@misena.edu.co" xr:uid="{AEF7FD18-7E06-496E-A2F5-F1A74C130A9A}"/>
+    <hyperlink ref="T8" r:id="rId7" display="mailto:stcuenca1@misena.edu.co" xr:uid="{2DC70B7F-72F7-4040-AE74-C0D661AE7ACC}"/>
+    <hyperlink ref="T9" r:id="rId8" display="mailto:Isariza376@misena.edu.co" xr:uid="{6EC2A19E-A776-4B96-A337-8C07AAB6F0DF}"/>
+    <hyperlink ref="T10" r:id="rId9" display="mailto:ycruz5428@misena.edu.co" xr:uid="{3ADC4647-F020-418D-832C-7C9BB227318D}"/>
+    <hyperlink ref="T11" r:id="rId10" display="mailto:jortiz223@misena.edu.co" xr:uid="{08D8E721-4B35-480E-B720-954489D6E984}"/>
+    <hyperlink ref="T12" r:id="rId11" display="mailto:joortiz82@misena.edu.co" xr:uid="{AA5DEEE4-3467-40EC-A9D0-B53EB202C27C}"/>
+    <hyperlink ref="T13" r:id="rId12" display="mailto:jramirez891@misena.edu.co" xr:uid="{B56391A9-9C55-49A3-95B0-3B61A0259D38}"/>
+    <hyperlink ref="T14" r:id="rId13" display="mailto:blegarda5@misena.edu.co" xr:uid="{0350D4B2-717E-492A-84E1-32D2293BACF9}"/>
+    <hyperlink ref="T15" r:id="rId14" display="mailto:hectoravilan7q@misena.edu.co" xr:uid="{2CA809A1-371D-4D93-B5D1-09AC7D83B2ED}"/>
+    <hyperlink ref="U2" r:id="rId15" display="mailto:wdpenaloza0@misena.edu.co" xr:uid="{BF4764C5-3F88-4F8E-B0D3-86A51274819D}"/>
+    <hyperlink ref="U3" r:id="rId16" display="mailto:avaquiro8@misena.edu.co" xr:uid="{C6E0AC4E-546F-4303-AE74-906CEF9C7D41}"/>
+    <hyperlink ref="U4" r:id="rId17" xr:uid="{EBD09E36-0C47-4E07-84BC-43A00DEDB958}"/>
+    <hyperlink ref="U5" r:id="rId18" display="mailto:almorales38@misena.edu.co" xr:uid="{CFB46A89-D5AD-44D4-BDFF-595AE666D7B0}"/>
+    <hyperlink ref="U6" r:id="rId19" display="mailto:kreinosob@misena.edu.co" xr:uid="{DC81984C-70F7-436B-99B0-29463DFF6BBC}"/>
+    <hyperlink ref="U7" r:id="rId20" display="mailto:avruiz77@misena.edu.co" xr:uid="{B2AE2181-55E1-4C5E-B7D9-C50E456237BD}"/>
+    <hyperlink ref="U8" r:id="rId21" display="mailto:stcuenca1@misena.edu.co" xr:uid="{0B96F8A4-CD87-4132-880B-38EE0D9A421F}"/>
+    <hyperlink ref="U9" r:id="rId22" display="mailto:Isariza376@misena.edu.co" xr:uid="{712AB0A8-198E-4030-B38C-C9A784389B8A}"/>
+    <hyperlink ref="U10" r:id="rId23" display="mailto:ycruz5428@misena.edu.co" xr:uid="{1F3AFEFC-EC51-494A-A9A3-B9E93A40F30A}"/>
+    <hyperlink ref="U11" r:id="rId24" display="mailto:jortiz223@misena.edu.co" xr:uid="{05C99108-64CC-429F-A23C-6718213051AB}"/>
+    <hyperlink ref="U12" r:id="rId25" display="mailto:joortiz82@misena.edu.co" xr:uid="{25409E38-615F-477C-B5DE-F7EF276D1BBB}"/>
+    <hyperlink ref="U13" r:id="rId26" display="mailto:jramirez891@misena.edu.co" xr:uid="{0683FA0C-19C8-458D-9C96-C571A5C84C89}"/>
+    <hyperlink ref="U14" r:id="rId27" display="mailto:blegarda5@misena.edu.co" xr:uid="{6E5C1AFA-33D2-48DB-8580-4C717ED51482}"/>
+    <hyperlink ref="U15" r:id="rId28" display="mailto:hectoravilan7q@misena.edu.co" xr:uid="{FEE3AA28-D44B-4CC8-A3C6-3F1F53A12601}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DC7297-0BD3-454D-8AC7-19E2F4F4BA18}">
-  <dimension ref="B2:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/app/formatos/aprendiz_excel.xlsx
+++ b/app/formatos/aprendiz_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\situ-web\app\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8817154-8A0E-4759-A6DA-2E9C0727B361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C831D56-995F-4C9F-90CB-C734B00D8EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCD50C48-0D3D-4E47-8B4A-0EDF22A9E9A7}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
